--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Vegfa-Gpc1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Vegfa-Gpc1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.7744670006959</v>
+        <v>3.847215666666667</v>
       </c>
       <c r="H2">
-        <v>3.7744670006959</v>
+        <v>11.541647</v>
       </c>
       <c r="I2">
-        <v>0.06130390323885967</v>
+        <v>0.05478559966737641</v>
       </c>
       <c r="J2">
-        <v>0.06130390323885967</v>
+        <v>0.05478559966737641</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.22694067102301</v>
+        <v>2.407369</v>
       </c>
       <c r="N2">
-        <v>2.22694067102301</v>
+        <v>7.222107</v>
       </c>
       <c r="O2">
-        <v>0.05347545229901366</v>
+        <v>0.05267229306167105</v>
       </c>
       <c r="P2">
-        <v>0.05347545229901366</v>
+        <v>0.05267229306167105</v>
       </c>
       <c r="Q2">
-        <v>8.405514075283936</v>
+        <v>9.261667732247668</v>
       </c>
       <c r="R2">
-        <v>8.405514075283936</v>
+        <v>83.35500959022902</v>
       </c>
       <c r="S2">
-        <v>0.003278253953392989</v>
+        <v>0.002885683161239438</v>
       </c>
       <c r="T2">
-        <v>0.003278253953392989</v>
+        <v>0.002885683161239438</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.7744670006959</v>
+        <v>3.847215666666667</v>
       </c>
       <c r="H3">
-        <v>3.7744670006959</v>
+        <v>11.541647</v>
       </c>
       <c r="I3">
-        <v>0.06130390323885967</v>
+        <v>0.05478559966737641</v>
       </c>
       <c r="J3">
-        <v>0.06130390323885967</v>
+        <v>0.05478559966737641</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>11.6027199574079</v>
+        <v>11.67754066666667</v>
       </c>
       <c r="N3">
-        <v>11.6027199574079</v>
+        <v>35.032622</v>
       </c>
       <c r="O3">
-        <v>0.2786157286067946</v>
+        <v>0.2555000268900398</v>
       </c>
       <c r="P3">
-        <v>0.2786157286067946</v>
+        <v>0.2555000268900398</v>
       </c>
       <c r="Q3">
-        <v>43.79408359755185</v>
+        <v>44.92601740093712</v>
       </c>
       <c r="R3">
-        <v>43.79408359755185</v>
+        <v>404.3341566084341</v>
       </c>
       <c r="S3">
-        <v>0.01708023166733532</v>
+        <v>0.01399772218820163</v>
       </c>
       <c r="T3">
-        <v>0.01708023166733532</v>
+        <v>0.01399772218820163</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.7744670006959</v>
+        <v>3.847215666666667</v>
       </c>
       <c r="H4">
-        <v>3.7744670006959</v>
+        <v>11.541647</v>
       </c>
       <c r="I4">
-        <v>0.06130390323885967</v>
+        <v>0.05478559966737641</v>
       </c>
       <c r="J4">
-        <v>0.06130390323885967</v>
+        <v>0.05478559966737641</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.92177085021723</v>
+        <v>3.130105</v>
       </c>
       <c r="N4">
-        <v>2.92177085021723</v>
+        <v>9.390314999999999</v>
       </c>
       <c r="O4">
-        <v>0.07016038629249395</v>
+        <v>0.06848547433891598</v>
       </c>
       <c r="P4">
-        <v>0.07016038629249395</v>
+        <v>0.06848547433891598</v>
       </c>
       <c r="Q4">
-        <v>11.02812765774014</v>
+        <v>12.04218899431167</v>
       </c>
       <c r="R4">
-        <v>11.02812765774014</v>
+        <v>108.379700948805</v>
       </c>
       <c r="S4">
-        <v>0.004301105532476065</v>
+        <v>0.003752017780162231</v>
       </c>
       <c r="T4">
-        <v>0.004301105532476065</v>
+        <v>0.003752017780162231</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.7744670006959</v>
+        <v>3.847215666666667</v>
       </c>
       <c r="H5">
-        <v>3.7744670006959</v>
+        <v>11.541647</v>
       </c>
       <c r="I5">
-        <v>0.06130390323885967</v>
+        <v>0.05478559966737641</v>
       </c>
       <c r="J5">
-        <v>0.06130390323885967</v>
+        <v>0.05478559966737641</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.17639567801089</v>
+        <v>2.949797</v>
       </c>
       <c r="N5">
-        <v>2.17639567801089</v>
+        <v>8.849391000000001</v>
       </c>
       <c r="O5">
-        <v>0.05226171706217327</v>
+        <v>0.06454040575268606</v>
       </c>
       <c r="P5">
-        <v>0.05226171706217327</v>
+        <v>0.06454040575268606</v>
       </c>
       <c r="Q5">
-        <v>8.214733667109282</v>
+        <v>11.34850523188634</v>
       </c>
       <c r="R5">
-        <v>8.214733667109282</v>
+        <v>102.136547086977</v>
       </c>
       <c r="S5">
-        <v>0.003203847245876132</v>
+        <v>0.003535884831936696</v>
       </c>
       <c r="T5">
-        <v>0.003203847245876132</v>
+        <v>0.003535884831936696</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.7744670006959</v>
+        <v>3.847215666666667</v>
       </c>
       <c r="H6">
-        <v>3.7744670006959</v>
+        <v>11.541647</v>
       </c>
       <c r="I6">
-        <v>0.06130390323885967</v>
+        <v>0.05478559966737641</v>
       </c>
       <c r="J6">
-        <v>0.06130390323885967</v>
+        <v>0.05478559966737641</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>22.7163399383818</v>
+        <v>25.53984366666667</v>
       </c>
       <c r="N6">
-        <v>22.7163399383818</v>
+        <v>76.61953099999999</v>
       </c>
       <c r="O6">
-        <v>0.5454867157395246</v>
+        <v>0.5588017999566871</v>
       </c>
       <c r="P6">
-        <v>0.5454867157395246</v>
+        <v>0.5588017999566871</v>
       </c>
       <c r="Q6">
-        <v>85.74207547401244</v>
+        <v>98.25728667861745</v>
       </c>
       <c r="R6">
-        <v>85.74207547401244</v>
+        <v>884.315580107557</v>
       </c>
       <c r="S6">
-        <v>0.03344046483977917</v>
+        <v>0.03061429170583642</v>
       </c>
       <c r="T6">
-        <v>0.03344046483977917</v>
+        <v>0.03061429170583642</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.5160830820305</v>
+        <v>17.74214666666667</v>
       </c>
       <c r="H7">
-        <v>17.5160830820305</v>
+        <v>53.22644</v>
       </c>
       <c r="I7">
-        <v>0.2844916281389258</v>
+        <v>0.2526539265634818</v>
       </c>
       <c r="J7">
-        <v>0.2844916281389258</v>
+        <v>0.2526539265634818</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.22694067102301</v>
+        <v>2.407369</v>
       </c>
       <c r="N7">
-        <v>2.22694067102301</v>
+        <v>7.222107</v>
       </c>
       <c r="O7">
-        <v>0.05347545229901366</v>
+        <v>0.05267229306167105</v>
       </c>
       <c r="P7">
-        <v>0.05347545229901366</v>
+        <v>0.05267229306167105</v>
       </c>
       <c r="Q7">
-        <v>39.0072778123918</v>
+        <v>42.71189387878667</v>
       </c>
       <c r="R7">
-        <v>39.0072778123918</v>
+        <v>384.40704490908</v>
       </c>
       <c r="S7">
-        <v>0.01521331849001186</v>
+        <v>0.01330786166313363</v>
       </c>
       <c r="T7">
-        <v>0.01521331849001186</v>
+        <v>0.01330786166313363</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>17.5160830820305</v>
+        <v>17.74214666666667</v>
       </c>
       <c r="H8">
-        <v>17.5160830820305</v>
+        <v>53.22644</v>
       </c>
       <c r="I8">
-        <v>0.2844916281389258</v>
+        <v>0.2526539265634818</v>
       </c>
       <c r="J8">
-        <v>0.2844916281389258</v>
+        <v>0.2526539265634818</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.6027199574079</v>
+        <v>11.67754066666667</v>
       </c>
       <c r="N8">
-        <v>11.6027199574079</v>
+        <v>35.032622</v>
       </c>
       <c r="O8">
-        <v>0.2786157286067946</v>
+        <v>0.2555000268900398</v>
       </c>
       <c r="P8">
-        <v>0.2786157286067946</v>
+        <v>0.2555000268900398</v>
       </c>
       <c r="Q8">
-        <v>203.2342067514902</v>
+        <v>207.1846392139645</v>
       </c>
       <c r="R8">
-        <v>203.2342067514902</v>
+        <v>1864.66175292568</v>
       </c>
       <c r="S8">
-        <v>0.07926384225646008</v>
+        <v>0.06455308503084373</v>
       </c>
       <c r="T8">
-        <v>0.07926384225646008</v>
+        <v>0.06455308503084374</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>17.5160830820305</v>
+        <v>17.74214666666667</v>
       </c>
       <c r="H9">
-        <v>17.5160830820305</v>
+        <v>53.22644</v>
       </c>
       <c r="I9">
-        <v>0.2844916281389258</v>
+        <v>0.2526539265634818</v>
       </c>
       <c r="J9">
-        <v>0.2844916281389258</v>
+        <v>0.2526539265634818</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.92177085021723</v>
+        <v>3.130105</v>
       </c>
       <c r="N9">
-        <v>2.92177085021723</v>
+        <v>9.390314999999999</v>
       </c>
       <c r="O9">
-        <v>0.07016038629249395</v>
+        <v>0.06848547433891598</v>
       </c>
       <c r="P9">
-        <v>0.07016038629249395</v>
+        <v>0.06848547433891598</v>
       </c>
       <c r="Q9">
-        <v>51.17798095905989</v>
+        <v>55.53478199206666</v>
       </c>
       <c r="R9">
-        <v>51.17798095905989</v>
+        <v>499.8130379286</v>
       </c>
       <c r="S9">
-        <v>0.01996004252720758</v>
+        <v>0.0173031240042897</v>
       </c>
       <c r="T9">
-        <v>0.01996004252720758</v>
+        <v>0.0173031240042897</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>17.5160830820305</v>
+        <v>17.74214666666667</v>
       </c>
       <c r="H10">
-        <v>17.5160830820305</v>
+        <v>53.22644</v>
       </c>
       <c r="I10">
-        <v>0.2844916281389258</v>
+        <v>0.2526539265634818</v>
       </c>
       <c r="J10">
-        <v>0.2844916281389258</v>
+        <v>0.2526539265634818</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.17639567801089</v>
+        <v>2.949797</v>
       </c>
       <c r="N10">
-        <v>2.17639567801089</v>
+        <v>8.849391000000001</v>
       </c>
       <c r="O10">
-        <v>0.05226171706217327</v>
+        <v>0.06454040575268606</v>
       </c>
       <c r="P10">
-        <v>0.05226171706217327</v>
+        <v>0.06454040575268606</v>
       </c>
       <c r="Q10">
-        <v>38.12192751541085</v>
+        <v>52.33573101089334</v>
       </c>
       <c r="R10">
-        <v>38.12192751541085</v>
+        <v>471.02157909804</v>
       </c>
       <c r="S10">
-        <v>0.01486802097635355</v>
+        <v>0.01630638693541646</v>
       </c>
       <c r="T10">
-        <v>0.01486802097635355</v>
+        <v>0.01630638693541646</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>17.5160830820305</v>
+        <v>17.74214666666667</v>
       </c>
       <c r="H11">
-        <v>17.5160830820305</v>
+        <v>53.22644</v>
       </c>
       <c r="I11">
-        <v>0.2844916281389258</v>
+        <v>0.2526539265634818</v>
       </c>
       <c r="J11">
-        <v>0.2844916281389258</v>
+        <v>0.2526539265634818</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>22.7163399383818</v>
+        <v>25.53984366666667</v>
       </c>
       <c r="N11">
-        <v>22.7163399383818</v>
+        <v>76.61953099999999</v>
       </c>
       <c r="O11">
-        <v>0.5454867157395246</v>
+        <v>0.5588017999566871</v>
       </c>
       <c r="P11">
-        <v>0.5454867157395246</v>
+        <v>0.5588017999566871</v>
       </c>
       <c r="Q11">
-        <v>397.9012976803432</v>
+        <v>453.1316521777377</v>
       </c>
       <c r="R11">
-        <v>397.9012976803432</v>
+        <v>4078.18486959964</v>
       </c>
       <c r="S11">
-        <v>0.1551864038888928</v>
+        <v>0.1411834689297983</v>
       </c>
       <c r="T11">
-        <v>0.1551864038888928</v>
+        <v>0.1411834689297983</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>19.7989400165054</v>
+        <v>21.79134566666667</v>
       </c>
       <c r="H12">
-        <v>19.7989400165054</v>
+        <v>65.374037</v>
       </c>
       <c r="I12">
-        <v>0.321569191830278</v>
+        <v>0.3103158344491261</v>
       </c>
       <c r="J12">
-        <v>0.321569191830278</v>
+        <v>0.3103158344491261</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.22694067102301</v>
+        <v>2.407369</v>
       </c>
       <c r="N12">
-        <v>2.22694067102301</v>
+        <v>7.222107</v>
       </c>
       <c r="O12">
-        <v>0.05347545229901366</v>
+        <v>0.05267229306167105</v>
       </c>
       <c r="P12">
-        <v>0.05347545229901366</v>
+        <v>0.05267229306167105</v>
       </c>
       <c r="Q12">
-        <v>44.09106476590086</v>
+        <v>52.45981002621767</v>
       </c>
       <c r="R12">
-        <v>44.09106476590086</v>
+        <v>472.138290235959</v>
       </c>
       <c r="S12">
-        <v>0.0171960579785524</v>
+        <v>0.01634504657378136</v>
       </c>
       <c r="T12">
-        <v>0.0171960579785524</v>
+        <v>0.01634504657378136</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>19.7989400165054</v>
+        <v>21.79134566666667</v>
       </c>
       <c r="H13">
-        <v>19.7989400165054</v>
+        <v>65.374037</v>
       </c>
       <c r="I13">
-        <v>0.321569191830278</v>
+        <v>0.3103158344491261</v>
       </c>
       <c r="J13">
-        <v>0.321569191830278</v>
+        <v>0.3103158344491261</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.6027199574079</v>
+        <v>11.67754066666667</v>
       </c>
       <c r="N13">
-        <v>11.6027199574079</v>
+        <v>35.032622</v>
       </c>
       <c r="O13">
-        <v>0.2786157286067946</v>
+        <v>0.2555000268900398</v>
       </c>
       <c r="P13">
-        <v>0.2786157286067946</v>
+        <v>0.2555000268900398</v>
       </c>
       <c r="Q13">
-        <v>229.7215564650291</v>
+        <v>254.4693252038905</v>
       </c>
       <c r="R13">
-        <v>229.7215564650291</v>
+        <v>2290.223926835014</v>
       </c>
       <c r="S13">
-        <v>0.08959423467929099</v>
+        <v>0.07928570404615684</v>
       </c>
       <c r="T13">
-        <v>0.08959423467929099</v>
+        <v>0.07928570404615685</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>19.7989400165054</v>
+        <v>21.79134566666667</v>
       </c>
       <c r="H14">
-        <v>19.7989400165054</v>
+        <v>65.374037</v>
       </c>
       <c r="I14">
-        <v>0.321569191830278</v>
+        <v>0.3103158344491261</v>
       </c>
       <c r="J14">
-        <v>0.321569191830278</v>
+        <v>0.3103158344491261</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.92177085021723</v>
+        <v>3.130105</v>
       </c>
       <c r="N14">
-        <v>2.92177085021723</v>
+        <v>9.390314999999999</v>
       </c>
       <c r="O14">
-        <v>0.07016038629249395</v>
+        <v>0.06848547433891598</v>
       </c>
       <c r="P14">
-        <v>0.07016038629249395</v>
+        <v>0.06848547433891598</v>
       </c>
       <c r="Q14">
-        <v>57.84796580542492</v>
+        <v>68.20920002796167</v>
       </c>
       <c r="R14">
-        <v>57.84796580542492</v>
+        <v>613.882800251655</v>
       </c>
       <c r="S14">
-        <v>0.0225614187185774</v>
+        <v>0.02125212711712492</v>
       </c>
       <c r="T14">
-        <v>0.0225614187185774</v>
+        <v>0.02125212711712492</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>19.7989400165054</v>
+        <v>21.79134566666667</v>
       </c>
       <c r="H15">
-        <v>19.7989400165054</v>
+        <v>65.374037</v>
       </c>
       <c r="I15">
-        <v>0.321569191830278</v>
+        <v>0.3103158344491261</v>
       </c>
       <c r="J15">
-        <v>0.321569191830278</v>
+        <v>0.3103158344491261</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.17639567801089</v>
+        <v>2.949797</v>
       </c>
       <c r="N15">
-        <v>2.17639567801089</v>
+        <v>8.849391000000001</v>
       </c>
       <c r="O15">
-        <v>0.05226171706217327</v>
+        <v>0.06454040575268606</v>
       </c>
       <c r="P15">
-        <v>0.05226171706217327</v>
+        <v>0.06454040575268606</v>
       </c>
       <c r="Q15">
-        <v>43.09032748111921</v>
+        <v>64.28004607349634</v>
       </c>
       <c r="R15">
-        <v>43.09032748111921</v>
+        <v>578.520414661467</v>
       </c>
       <c r="S15">
-        <v>0.01680575811934571</v>
+        <v>0.02002790986682995</v>
       </c>
       <c r="T15">
-        <v>0.01680575811934571</v>
+        <v>0.02002790986682995</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>19.7989400165054</v>
+        <v>21.79134566666667</v>
       </c>
       <c r="H16">
-        <v>19.7989400165054</v>
+        <v>65.374037</v>
       </c>
       <c r="I16">
-        <v>0.321569191830278</v>
+        <v>0.3103158344491261</v>
       </c>
       <c r="J16">
-        <v>0.321569191830278</v>
+        <v>0.3103158344491261</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>22.7163399383818</v>
+        <v>25.53984366666667</v>
       </c>
       <c r="N16">
-        <v>22.7163399383818</v>
+        <v>76.61953099999999</v>
       </c>
       <c r="O16">
-        <v>0.5454867157395246</v>
+        <v>0.5588017999566871</v>
       </c>
       <c r="P16">
-        <v>0.5454867157395246</v>
+        <v>0.5588017999566871</v>
       </c>
       <c r="Q16">
-        <v>449.7594518345672</v>
+        <v>556.5475616129609</v>
       </c>
       <c r="R16">
-        <v>449.7594518345672</v>
+        <v>5008.928054516647</v>
       </c>
       <c r="S16">
-        <v>0.1754117223345115</v>
+        <v>0.173405046845233</v>
       </c>
       <c r="T16">
-        <v>0.1754117223345115</v>
+        <v>0.173405046845233</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>15.2741319935737</v>
+        <v>20.94549</v>
       </c>
       <c r="H17">
-        <v>15.2741319935737</v>
+        <v>62.83647</v>
       </c>
       <c r="I17">
-        <v>0.2480784464717734</v>
+        <v>0.2982705752420869</v>
       </c>
       <c r="J17">
-        <v>0.2480784464717734</v>
+        <v>0.2982705752420869</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.22694067102301</v>
+        <v>2.407369</v>
       </c>
       <c r="N17">
-        <v>2.22694067102301</v>
+        <v>7.222107</v>
       </c>
       <c r="O17">
-        <v>0.05347545229901366</v>
+        <v>0.05267229306167105</v>
       </c>
       <c r="P17">
-        <v>0.05347545229901366</v>
+        <v>0.05267229306167105</v>
       </c>
       <c r="Q17">
-        <v>34.01458575106304</v>
+        <v>50.42352331581</v>
       </c>
       <c r="R17">
-        <v>34.01458575106304</v>
+        <v>453.81170984229</v>
       </c>
       <c r="S17">
-        <v>0.01326610713071473</v>
+        <v>0.01571059515082441</v>
       </c>
       <c r="T17">
-        <v>0.01326610713071473</v>
+        <v>0.01571059515082441</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>15.2741319935737</v>
+        <v>20.94549</v>
       </c>
       <c r="H18">
-        <v>15.2741319935737</v>
+        <v>62.83647</v>
       </c>
       <c r="I18">
-        <v>0.2480784464717734</v>
+        <v>0.2982705752420869</v>
       </c>
       <c r="J18">
-        <v>0.2480784464717734</v>
+        <v>0.2982705752420869</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>11.6027199574079</v>
+        <v>11.67754066666667</v>
       </c>
       <c r="N18">
-        <v>11.6027199574079</v>
+        <v>35.032622</v>
       </c>
       <c r="O18">
-        <v>0.2786157286067946</v>
+        <v>0.2555000268900398</v>
       </c>
       <c r="P18">
-        <v>0.2786157286067946</v>
+        <v>0.2555000268900398</v>
       </c>
       <c r="Q18">
-        <v>177.2214761139201</v>
+        <v>244.59181125826</v>
       </c>
       <c r="R18">
-        <v>177.2214761139201</v>
+        <v>2201.32630132434</v>
       </c>
       <c r="S18">
-        <v>0.06911855711537482</v>
+        <v>0.07620813999486084</v>
       </c>
       <c r="T18">
-        <v>0.06911855711537482</v>
+        <v>0.07620813999486085</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>15.2741319935737</v>
+        <v>20.94549</v>
       </c>
       <c r="H19">
-        <v>15.2741319935737</v>
+        <v>62.83647</v>
       </c>
       <c r="I19">
-        <v>0.2480784464717734</v>
+        <v>0.2982705752420869</v>
       </c>
       <c r="J19">
-        <v>0.2480784464717734</v>
+        <v>0.2982705752420869</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.92177085021723</v>
+        <v>3.130105</v>
       </c>
       <c r="N19">
-        <v>2.92177085021723</v>
+        <v>9.390314999999999</v>
       </c>
       <c r="O19">
-        <v>0.07016038629249395</v>
+        <v>0.06848547433891598</v>
       </c>
       <c r="P19">
-        <v>0.07016038629249395</v>
+        <v>0.06848547433891598</v>
       </c>
       <c r="Q19">
-        <v>44.62751362119403</v>
+        <v>65.56158297645</v>
       </c>
       <c r="R19">
-        <v>44.62751362119403</v>
+        <v>590.0542467880499</v>
       </c>
       <c r="S19">
-        <v>0.0174052796353014</v>
+        <v>0.02042720182679566</v>
       </c>
       <c r="T19">
-        <v>0.0174052796353014</v>
+        <v>0.02042720182679566</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>15.2741319935737</v>
+        <v>20.94549</v>
       </c>
       <c r="H20">
-        <v>15.2741319935737</v>
+        <v>62.83647</v>
       </c>
       <c r="I20">
-        <v>0.2480784464717734</v>
+        <v>0.2982705752420869</v>
       </c>
       <c r="J20">
-        <v>0.2480784464717734</v>
+        <v>0.2982705752420869</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.17639567801089</v>
+        <v>2.949797</v>
       </c>
       <c r="N20">
-        <v>2.17639567801089</v>
+        <v>8.849391000000001</v>
       </c>
       <c r="O20">
-        <v>0.05226171706217327</v>
+        <v>0.06454040575268606</v>
       </c>
       <c r="P20">
-        <v>0.05226171706217327</v>
+        <v>0.06454040575268606</v>
       </c>
       <c r="Q20">
-        <v>33.24255485618166</v>
+        <v>61.78494356553</v>
       </c>
       <c r="R20">
-        <v>33.24255485618166</v>
+        <v>556.0644920897701</v>
       </c>
       <c r="S20">
-        <v>0.01296500557873132</v>
+        <v>0.01925050395021137</v>
       </c>
       <c r="T20">
-        <v>0.01296500557873132</v>
+        <v>0.01925050395021137</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>15.2741319935737</v>
+        <v>20.94549</v>
       </c>
       <c r="H21">
-        <v>15.2741319935737</v>
+        <v>62.83647</v>
       </c>
       <c r="I21">
-        <v>0.2480784464717734</v>
+        <v>0.2982705752420869</v>
       </c>
       <c r="J21">
-        <v>0.2480784464717734</v>
+        <v>0.2982705752420869</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>22.7163399383818</v>
+        <v>25.53984366666667</v>
       </c>
       <c r="N21">
-        <v>22.7163399383818</v>
+        <v>76.61953099999999</v>
       </c>
       <c r="O21">
-        <v>0.5454867157395246</v>
+        <v>0.5588017999566871</v>
       </c>
       <c r="P21">
-        <v>0.5454867157395246</v>
+        <v>0.5588017999566871</v>
       </c>
       <c r="Q21">
-        <v>346.9723746297335</v>
+        <v>534.94454012173</v>
       </c>
       <c r="R21">
-        <v>346.9723746297335</v>
+        <v>4814.500861095569</v>
       </c>
       <c r="S21">
-        <v>0.1353234970116511</v>
+        <v>0.1666741343193947</v>
       </c>
       <c r="T21">
-        <v>0.1353234970116511</v>
+        <v>0.1666741343193947</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.2061442887798</v>
+        <v>5.896920666666666</v>
       </c>
       <c r="H22">
-        <v>5.2061442887798</v>
+        <v>17.690762</v>
       </c>
       <c r="I22">
-        <v>0.08455683032016326</v>
+        <v>0.08397406407792883</v>
       </c>
       <c r="J22">
-        <v>0.08455683032016326</v>
+        <v>0.08397406407792883</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.22694067102301</v>
+        <v>2.407369</v>
       </c>
       <c r="N22">
-        <v>2.22694067102301</v>
+        <v>7.222107</v>
       </c>
       <c r="O22">
-        <v>0.05347545229901366</v>
+        <v>0.05267229306167105</v>
       </c>
       <c r="P22">
-        <v>0.05347545229901366</v>
+        <v>0.05267229306167105</v>
       </c>
       <c r="Q22">
-        <v>11.5937744558979</v>
+        <v>14.19606400839267</v>
       </c>
       <c r="R22">
-        <v>11.5937744558979</v>
+        <v>127.764576075534</v>
       </c>
       <c r="S22">
-        <v>0.004521714746341682</v>
+        <v>0.00442310651269221</v>
       </c>
       <c r="T22">
-        <v>0.004521714746341682</v>
+        <v>0.00442310651269221</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.2061442887798</v>
+        <v>5.896920666666666</v>
       </c>
       <c r="H23">
-        <v>5.2061442887798</v>
+        <v>17.690762</v>
       </c>
       <c r="I23">
-        <v>0.08455683032016326</v>
+        <v>0.08397406407792883</v>
       </c>
       <c r="J23">
-        <v>0.08455683032016326</v>
+        <v>0.08397406407792883</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>11.6027199574079</v>
+        <v>11.67754066666667</v>
       </c>
       <c r="N23">
-        <v>11.6027199574079</v>
+        <v>35.032622</v>
       </c>
       <c r="O23">
-        <v>0.2786157286067946</v>
+        <v>0.2555000268900398</v>
       </c>
       <c r="P23">
-        <v>0.2786157286067946</v>
+        <v>0.2555000268900398</v>
       </c>
       <c r="Q23">
-        <v>60.40543424057054</v>
+        <v>68.86153089310712</v>
       </c>
       <c r="R23">
-        <v>60.40543424057054</v>
+        <v>619.753778037964</v>
       </c>
       <c r="S23">
-        <v>0.02355886288833338</v>
+        <v>0.02145537562997674</v>
       </c>
       <c r="T23">
-        <v>0.02355886288833338</v>
+        <v>0.02145537562997674</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.2061442887798</v>
+        <v>5.896920666666666</v>
       </c>
       <c r="H24">
-        <v>5.2061442887798</v>
+        <v>17.690762</v>
       </c>
       <c r="I24">
-        <v>0.08455683032016326</v>
+        <v>0.08397406407792883</v>
       </c>
       <c r="J24">
-        <v>0.08455683032016326</v>
+        <v>0.08397406407792883</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.92177085021723</v>
+        <v>3.130105</v>
       </c>
       <c r="N24">
-        <v>2.92177085021723</v>
+        <v>9.390314999999999</v>
       </c>
       <c r="O24">
-        <v>0.07016038629249395</v>
+        <v>0.06848547433891598</v>
       </c>
       <c r="P24">
-        <v>0.07016038629249395</v>
+        <v>0.06848547433891598</v>
       </c>
       <c r="Q24">
-        <v>15.21116062498173</v>
+        <v>18.45798086333667</v>
       </c>
       <c r="R24">
-        <v>15.21116062498173</v>
+        <v>166.12182777003</v>
       </c>
       <c r="S24">
-        <v>0.005932539878931519</v>
+        <v>0.005751003610543481</v>
       </c>
       <c r="T24">
-        <v>0.005932539878931519</v>
+        <v>0.005751003610543481</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.2061442887798</v>
+        <v>5.896920666666666</v>
       </c>
       <c r="H25">
-        <v>5.2061442887798</v>
+        <v>17.690762</v>
       </c>
       <c r="I25">
-        <v>0.08455683032016326</v>
+        <v>0.08397406407792883</v>
       </c>
       <c r="J25">
-        <v>0.08455683032016326</v>
+        <v>0.08397406407792883</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.17639567801089</v>
+        <v>2.949797</v>
       </c>
       <c r="N25">
-        <v>2.17639567801089</v>
+        <v>8.849391000000001</v>
       </c>
       <c r="O25">
-        <v>0.05226171706217327</v>
+        <v>0.06454040575268606</v>
       </c>
       <c r="P25">
-        <v>0.05226171706217327</v>
+        <v>0.06454040575268606</v>
       </c>
       <c r="Q25">
-        <v>11.33062992920144</v>
+        <v>17.39471889177133</v>
       </c>
       <c r="R25">
-        <v>11.33062992920144</v>
+        <v>156.552470025942</v>
       </c>
       <c r="S25">
-        <v>0.004419085141866567</v>
+        <v>0.005419720168291586</v>
       </c>
       <c r="T25">
-        <v>0.004419085141866567</v>
+        <v>0.005419720168291586</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.2061442887798</v>
+        <v>5.896920666666666</v>
       </c>
       <c r="H26">
-        <v>5.2061442887798</v>
+        <v>17.690762</v>
       </c>
       <c r="I26">
-        <v>0.08455683032016326</v>
+        <v>0.08397406407792883</v>
       </c>
       <c r="J26">
-        <v>0.08455683032016326</v>
+        <v>0.08397406407792883</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>22.7163399383818</v>
+        <v>25.53984366666667</v>
       </c>
       <c r="N26">
-        <v>22.7163399383818</v>
+        <v>76.61953099999999</v>
       </c>
       <c r="O26">
-        <v>0.5454867157395246</v>
+        <v>0.5588017999566871</v>
       </c>
       <c r="P26">
-        <v>0.5454867157395246</v>
+        <v>0.5588017999566871</v>
       </c>
       <c r="Q26">
-        <v>118.2645434321869</v>
+        <v>150.6064319414024</v>
       </c>
       <c r="R26">
-        <v>118.2645434321869</v>
+        <v>1355.457887472622</v>
       </c>
       <c r="S26">
-        <v>0.0461246276646901</v>
+        <v>0.04692485815642481</v>
       </c>
       <c r="T26">
-        <v>0.0461246276646901</v>
+        <v>0.04692485815642481</v>
       </c>
     </row>
   </sheetData>
